--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.263700000000005</v>
+        <v>-7.378800000000004</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.656899999999996</v>
+        <v>5.349399999999996</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.986399999999999</v>
+        <v>-6.954800000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.842299999999994</v>
+        <v>6.323599999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.803200000000003</v>
+        <v>-7.881600000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.333100000000001</v>
+        <v>5.900000000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.313999999999998</v>
+        <v>7.118099999999994</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.706300000000001</v>
+        <v>-7.789800000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.834500000000004</v>
+        <v>8.699200000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,13 +873,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.965900000000009</v>
+        <v>5.435400000000007</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.860000000000003</v>
+        <v>-8.878399999999997</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.155800000000005</v>
+        <v>5.627500000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.976999999999997</v>
+        <v>-8.8466</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.940999999999999</v>
+        <v>5.035799999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.307199999999998</v>
+        <v>-7.288399999999995</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.510500000000008</v>
+        <v>8.286800000000005</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.917500000000009</v>
+        <v>8.942100000000005</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.703</v>
+        <v>-7.660599999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.119400000000001</v>
+        <v>-8.008199999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.630300000000005</v>
+        <v>4.938500000000006</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.423600000000004</v>
+        <v>-7.317000000000002</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.874399999999996</v>
+        <v>-8.150899999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.518799999999998</v>
+        <v>-7.4544</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.873299999999992</v>
+        <v>7.115199999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.0303</v>
+        <v>-7.744600000000003</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.316099999999997</v>
+        <v>5.148499999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.287299999999995</v>
+        <v>5.153299999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.203099999999994</v>
+        <v>-7.142199999999995</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.478599999999999</v>
+        <v>-7.568100000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,13 +1723,13 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.482599999999999</v>
+        <v>5.078599999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.0068</v>
+        <v>-8.103699999999995</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.931500000000002</v>
+        <v>10.0577</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.787800000000004</v>
+        <v>-7.773400000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.317999999999999</v>
+        <v>6.2626</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.264599999999999</v>
+        <v>5.354800000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.023999999999994</v>
+        <v>-9.149299999999993</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.352999999999998</v>
+        <v>5.765</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.301899999999997</v>
+        <v>-7.163399999999998</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.388599999999997</v>
+        <v>6.232699999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.445800000000006</v>
+        <v>-8.423500000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.847899999999999</v>
+        <v>-7.783299999999997</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
